--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Scenerio" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
     <sheet name="Register" sheetId="2" r:id="rId2"/>
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
+    <sheet name="Your Order" sheetId="5" r:id="rId5"/>
+    <sheet name="Login &amp;Security" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="256">
   <si>
     <t>Project Name</t>
   </si>
@@ -599,6 +601,192 @@
   </si>
   <si>
     <t>1- User go to switch account page                        2- User go to Sign-in page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC ID 001 </t>
+  </si>
+  <si>
+    <t>Verify that the New User is able to place an order successfully</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User redirect to item page         2- User redirect to checkout page                                                         3- User redirect to order successfully page </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can cancel an order after order placed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User redirect to placed order page                                                         2- User go to Order details page 3- User go to Order cancel Confirmation page                                  4-User will get Cancel order Confirmation message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User go to shopping cart page 2- User go to Checkout page          3- User should get order confirmation message </t>
+  </si>
+  <si>
+    <t>1- User can not proceed further and redirect to login page</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot place an order as a guest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user cannot place order when selected item is out of stock </t>
+  </si>
+  <si>
+    <t>Verify that the user can Place Order From cart</t>
+  </si>
+  <si>
+    <t>Verify that the user cannot place order by providing invalid address</t>
+  </si>
+  <si>
+    <t>1- Click on any item                                              2- Click on Buy now button (ER-1)</t>
+  </si>
+  <si>
+    <t>1- Click on Cart button placed in home page header (ER-1)                                             2- Click on Procced to buy button (ER-2)          3-Select delivery address and payment method  and click on place your order button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- Select the item (ER-1)                                   2- Click on Buy now button (ER-2)                3- Enter shipping address and click on use this address                                                   4- Select payment method and click on use this payment method button                5- Click on place your order button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click your order link (ER-1)                              2- Click on View or edit order button (ER-2)                                                                               3- Click on Cancel Item button (ER-3)          4-  Click Cancel Selected items in this order</t>
+  </si>
+  <si>
+    <t>1-Click on any item                                              2-Click on Buy now botton (ER-1)                  3- Enter Invalid shipping address and click on Use this address button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- User go to Checkout Page            2- User should get warning message and order should not be placed until a valid address is  provided "We're unable to verify the street address as entered. Please review before saving"</t>
+  </si>
+  <si>
+    <t>Verify that the user can track their placed order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be logged in </t>
+  </si>
+  <si>
+    <t>User must be logged in and have placed the order</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must not be logged in </t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be logged in and have already added an item to the cart </t>
+  </si>
+  <si>
+    <t>User must be logged in with the same Account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Account &amp; List dropmenu and click your order link (ER-1)                              2-  Click on Track Package button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User redirect to your order page                                                           2- User must get status about their order e.g..ordered,shipped, out for delivery and delivered </t>
+  </si>
+  <si>
+    <t>Verify that the user can view their order details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify Cancelled order link </t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click your order link (ER-1)                                            2- Click on view or order button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click your order link                                            2- Click on cancelled order link (ER-1)</t>
+  </si>
+  <si>
+    <t>1- User must view the details of their canceled order</t>
+  </si>
+  <si>
+    <t>1- User redirect to your order page                                                          2-  User must view the details of their order e.g.. Shipping address, payment methods, order summary, arriving date</t>
+  </si>
+  <si>
+    <t>Verify that the user can view their order history</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User must be logged in and must have placed an order in the past </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Account &amp; List dropmenu and click your order link (ER-1)                                      </t>
+  </si>
+  <si>
+    <t>1- User must view the details of their order history</t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click on your order link (ER-1)                                2- Enter product name in order search bar and click search order button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User go to order page                  2- User must view the details of searched product </t>
+  </si>
+  <si>
+    <t>Verify the order search functionality with valid order name</t>
+  </si>
+  <si>
+    <t>Verify the order search functionality with invalid order name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User go to order page                  2- User must get empty search results with message "No result found. Please try another search " </t>
+  </si>
+  <si>
+    <t>Verify the order search functionality with empty input</t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click on your order link (ER-1)                                2- Enter invalid product name in order search bar and click search order button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click on your order link (ER-1)                                2- Leave empty invalid order search bar and click search order button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- User go to order page                  2- User must redirect to same page</t>
+  </si>
+  <si>
+    <t>Verify the order search functionality by entering partial order name</t>
+  </si>
+  <si>
+    <t>TC ID 013</t>
+  </si>
+  <si>
+    <t>TC ID 014</t>
+  </si>
+  <si>
+    <t>1- Go to Account &amp; List dropmenu and click on your order link (ER-1)                                2- Enter the First few charater of the product name in order search bar and click "search order button" (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User go to order page                  2- The order that matches the partial input should appear in the search results </t>
+  </si>
+  <si>
+    <t>Test SN ID 006</t>
+  </si>
+  <si>
+    <t>Verify that the user can edit/change their name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be logged in </t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                            3- Click on name "Edit" button (ER-3)        4- Enter Name in field and click on "Save Changes" button (ER-4)</t>
+  </si>
+  <si>
+    <t>Verify that the user can add email</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                              3- User Must go to "Change Your Name" Page                                                                              4- The name must be changed and user redirect to Login and security page. Also User must receive Text Message on registered mobile Number "You Have Successfully changed the name associated with your amazon account"</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter valid email address and click on continue button (ER-3)                                4- Enter OTP which is received on email and click on continue button, Enter valid password and click on save changes button (ER-4)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                              3- User must received OTP on given Email Address                                                                      4- User redirect to login and security page and confirmation message must be shown"Email address updated"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can not add same email again </t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter already added email address and click on continue button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                               3- The warning message must be shown "You cannot use the email address you have entered, because it is the same as your current email address"</t>
+  </si>
+  <si>
+    <t>Verify Password Change with valid inputs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                    3- </t>
   </si>
 </sst>
 </file>
@@ -986,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1807,8 +1995,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2086,8 +2274,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2131,7 +2319,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="90">
+    <row r="2" spans="1:9" ht="45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -2209,6 +2397,465 @@
       </c>
       <c r="G5" s="10" t="s">
         <v>186</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" customWidth="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="105">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90">
+      <c r="A4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="30">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="120">
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90">
+      <c r="A8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>211</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="90">
+      <c r="A9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="45">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="60">
+      <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="60">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="75">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>187</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="60">
+      <c r="A14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="75">
+      <c r="A15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>240</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>242</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.7109375" customWidth="1"/>
+    <col min="7" max="7" width="37.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="165">
+      <c r="A2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="165">
+      <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="105">
+      <c r="A4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,14 @@
     <sheet name="Login" sheetId="3" r:id="rId3"/>
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
     <sheet name="Your Order" sheetId="5" r:id="rId5"/>
-    <sheet name="Login &amp;Security" sheetId="6" r:id="rId6"/>
+    <sheet name="Login &amp; Security" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
   <si>
     <t>Project Name</t>
   </si>
@@ -759,34 +759,109 @@
     <t xml:space="preserve">User should be logged in </t>
   </si>
   <si>
-    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                            3- Click on name "Edit" button (ER-3)        4- Enter Name in field and click on "Save Changes" button (ER-4)</t>
-  </si>
-  <si>
     <t>Verify that the user can add email</t>
   </si>
   <si>
-    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                              3- User Must go to "Change Your Name" Page                                                                              4- The name must be changed and user redirect to Login and security page. Also User must receive Text Message on registered mobile Number "You Have Successfully changed the name associated with your amazon account"</t>
-  </si>
-  <si>
-    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter valid email address and click on continue button (ER-3)                                4- Enter OTP which is received on email and click on continue button, Enter valid password and click on save changes button (ER-4)</t>
-  </si>
-  <si>
-    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                              3- User must received OTP on given Email Address                                                                      4- User redirect to login and security page and confirmation message must be shown"Email address updated"</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the user can not add same email again </t>
   </si>
   <si>
-    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter already added email address and click on continue button (ER-3)</t>
-  </si>
-  <si>
-    <t>1- User must go to Your Account page           2- User Must go to Login and Security page                                                                               3- The warning message must be shown "You cannot use the email address you have entered, because it is the same as your current email address"</t>
-  </si>
-  <si>
     <t>Verify Password Change with valid inputs</t>
   </si>
   <si>
-    <t xml:space="preserve">1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                   2- Click on "login and security" link (ER-2)                                                                    3- </t>
+    <t xml:space="preserve">Verify that the system display an error when invalid email format is entered </t>
+  </si>
+  <si>
+    <t>sp89gmail.com</t>
+  </si>
+  <si>
+    <t>Verify that the user can not change password when new password and confirm password do not match</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can not change password when current password is incorrect </t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                   2- Click on Password "Edit" button (ER-2)                                                                                3- Enter incorrect Current password,New Password and Reenter  new password and click on "Save changes" button (ER-3)</t>
+  </si>
+  <si>
+    <t>Verify that the user can successfully change their Mobile Number</t>
+  </si>
+  <si>
+    <t>Verify that the system display an error if mobile number exceed 10 digit</t>
+  </si>
+  <si>
+    <t>Verify that the system display an error if mobile number less than 10 digit</t>
+  </si>
+  <si>
+    <t>Verify that the system display an error if user try to change a number to the same number they currently using</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                         2- Click on "login and security" link (ER-2)                                                                            3- Click on name "Edit" button (ER-3)             4- Enter Name in field and click on "Save Changes" button (ER-4)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page                2- User Must go to Login and Security page                                                                              3- User Must go to "Change Your Name" Page                                                                              4- The name must be changed and user redirect to Login and security page. Also User must receive Text Message on registered mobile Number "You Have Successfully changed the name associated with your amazon account"</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                          2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter valid email address and click on continue button (ER-3)                                                               4- Enter OTP which is received on email and click on continue button, Enter valid password and click on save changes button (ER-4)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page                2- User Must go to Login and Security page                                                                              3- User must received OTP on given Email Address                                                                           4- User redirect to login and security page and confirmation message must be shown"Email address updated"</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                          2- Click on "login and security" link (ER-2)                                                                  3- Click on Email "Add" button and enter already added email address and click on continue button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page               2- User Must go to Login and Security page                                                                               3- The warning message must be shown "You cannot use the email address you have entered, because it is the same as your current email address"</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Email "Edit" button (ER-2)             3- Enter invalid email format Without"@" (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                  2- User should reach "Change your email address" page                                                                       3- User should get error message"The email address that you have entered is not valid. Please enter a valid e-mail address (for example: john@example.com)."</t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                          2- Click on "login and security" link (ER-2)                                                                    3- Click on Password "Edit" button (ER-3)                                                                                4- Enter Current password,New Password and Reenter new password and click on "Save changes" button (ER-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User must go to Your Account page                2- User Must go to Login and Security page                                                                              3- User must go to Change password page      4- User must redirect to Login and security page with password updated confirmation message </t>
+  </si>
+  <si>
+    <t>1- Go to Accounts and list Dropmenu and click "Your Account" link (ER-1)                          2- Click on "login and security" link (ER-2)                                                                   3- Click on Password "Edit" button (ER-3)                                                                                4- Enter Current password,New Password and Reenter difffrent new password and click on "Save changes" button (ER-4)</t>
+  </si>
+  <si>
+    <t>1- User must go to Your Account page                 2- User Must go to Login and Security page                                                                              3- User must go to Change password page      4- User must get warning message "There was a problem, Password do not match"</t>
+  </si>
+  <si>
+    <t>1- User Must go to Login and Security page                                                                              2- User must go to Change password page        3- User must get warning message "There was a problem, There was an error with your Phone/Password combination. Please try again".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                         3- User should receive OTP on the entered mobile number                                                                         4- User should redirect to Login and security page with the confirmation message that the Mobile Number updated </t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Mobile Number "Edit" button (ER-2)                                                                             3- Enter Valid Mobile number and click on "Continue" Button (ER-3)                                        4- Enter Valid OTP and Click "Verify" button , Enter Password and click on "Save Changes"button (ER-4)</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                     2- Click on Mobile Number "Edit" button (ER-2)                                                                             3- Enter 11 digit Mobile number and click on continue button (ER-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Should navigate to Login and Security page                                                                                  2- User should reach Change mobile number page                                                                                  3- User should get error message </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Should navigate to Login and Security page                                                                                  2- User should reach Change mobile number page                                                                                        3- User should get error message </t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Mobile Number "Edit" button (ER-2)                                                                                3- Enter 9 digit Mobile number and click on continue button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Mobile Number "Edit" button (ER-2)                                                                               3- Enter same mobile number and click on continue button (ER-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                   3- User should get error message "Mobile number already in use" </t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                     2- User should reach Change mobile number page                                                                                       3- User reached OTP Page</t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                    3- User reached OTP Page</t>
   </si>
 </sst>
 </file>
@@ -843,7 +918,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -871,6 +946,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1227,12 +1305,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1272,12 +1350,12 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1558,12 +1636,12 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="13" t="s">
+      <c r="D22" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
       <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2408,8 +2486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2734,58 +2812,57 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.7109375" customWidth="1"/>
-    <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
+    <col min="5" max="5" width="39.140625" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="9" width="40.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="165">
-      <c r="A2" t="s">
+    <row r="2" spans="1:9" ht="150">
+      <c r="A2" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="8" t="s">
         <v>127</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2795,67 +2872,253 @@
         <v>245</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="150">
+      <c r="A3" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>246</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="165">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" t="s">
-        <v>247</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>249</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="F3" s="8"/>
       <c r="G3" s="8" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="105">
-      <c r="A4" t="s">
+        <v>261</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="90">
+      <c r="A4" s="8" t="s">
         <v>243</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="8" t="s">
         <v>136</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>252</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="F4" s="8"/>
       <c r="G4" s="8" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="75">
-      <c r="A5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B5" t="s">
-        <v>140</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="120">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
       <c r="C5" s="8" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>245</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="105">
+      <c r="A6" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="105">
+      <c r="A7" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="105">
+      <c r="A8" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="150">
+      <c r="A9" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="105">
+      <c r="A10" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>255</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>273</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>280</v>
+      </c>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="105">
+      <c r="A11" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="105">
+      <c r="A12" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,15 @@
     <sheet name="Logout" sheetId="4" r:id="rId4"/>
     <sheet name="Your Order" sheetId="5" r:id="rId5"/>
     <sheet name="Login &amp; Security" sheetId="7" r:id="rId6"/>
+    <sheet name="Your Address" sheetId="8" r:id="rId7"/>
+    <sheet name="Wishlist" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="316">
   <si>
     <t>Project Name</t>
   </si>
@@ -753,15 +755,9 @@
     <t>Test SN ID 006</t>
   </si>
   <si>
-    <t>Verify that the user can edit/change their name</t>
-  </si>
-  <si>
     <t xml:space="preserve">User should be logged in </t>
   </si>
   <si>
-    <t>Verify that the user can add email</t>
-  </si>
-  <si>
     <t xml:space="preserve">Verify that the user can not add same email again </t>
   </si>
   <si>
@@ -862,6 +858,133 @@
   </si>
   <si>
     <t>1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                    3- User reached OTP Page</t>
+  </si>
+  <si>
+    <t>Verify that the new user can add email</t>
+  </si>
+  <si>
+    <t>Verify that the user can not add an email that is already in use with another amazon account</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Email "Edit" button (ER-2)                 3- Enter already Used email with another account and click on "Continue" button (Er-3)                                                                                      4- Enter OTP and click on "Cotinue" button (ER-4)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Must go to Login and Security page                                                                              2- User must go to "Change Your Email Address" page                                                                  3- User must receive OTP on given Email            4- User must be redirect to "login &amp; Security" page with warning message "The new email address that you provided is already taken. Use a different email"
+</t>
+  </si>
+  <si>
+    <t>Verify that the system display an error if user leave change mobile number field empty</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Mobile Number "Edit" button (ER-2)                                                                               3- Leave mobile number field empty and click on "Continue" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                      3- User should get warning message "There was a problem, Please enter a valid mobile phone number with area code".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can cancel mobile number change operation </t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Mobile Number "Edit" button (ER-2)                                                                              3- Click on "Cancel" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                    2- User should reach Change mobile number page                                                                                     3- User shopuld redirect to Login &amp; Security page</t>
+  </si>
+  <si>
+    <t>Verify that the user can change their name</t>
+  </si>
+  <si>
+    <t>Verify warning message when name field are empty</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Login and Security" Link (ER-1)                                                                    2- Click on Name "Edit" button (ER-2)               3- Leave New Name field Emptyand click on "Save changes" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User Should navigate to Login and Security page                                                                                    2- User should reach Change your name page 3- The System dsiplay an error message "There was a problem, Enter your name".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the New User can add Address with valid details </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Account and List Dropmenu and click "Your Account&gt;Your Address (ER-1)                 2- Click on "Add Address" button (ER-2)        3- Enter Full Name, mobile number,Pin Code, 'Flat, House no., Building, Company, Apartment', 'Area, Street, Sector, Village
+', Landmark, Town/City, Choose State and click" Add address" button (ER-3)
+</t>
+  </si>
+  <si>
+    <t>1- User Must go to Your Address,  add address Page                                                   2- User must go Add a New Address  page                                                                      3-  user should be redirected back to the Your Address page with a confirmation message, "Address saved". The user should be able to view the newly saved address on the same page.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">himanshu pant, 9027112249, 263139,
+Bithoria No 1
+Kusumkheda
+KALADHUNGI, UTTARAKHAND 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the old User can add Multiple Address with valid details </t>
+  </si>
+  <si>
+    <t>Bharti pant, 9027112249, 244901, post office colony,Rampur,Uttar Pradesh</t>
+  </si>
+  <si>
+    <t>Verify that the User can remove Address</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account&gt;Your Address (ER-1)                 2- Click on "Remove" link "Which address user want to remove" (ER-2)                               3- Click on "Yes" button (ER-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User Must go to Your Address,  add address Page                                                   2- Confirm Deletion POP-UP appear      3- User should be redirect back to the your address page with a confirmation message ," Address Deleted" </t>
+  </si>
+  <si>
+    <t>User should be logged in</t>
+  </si>
+  <si>
+    <t>Verify that the user can edit their address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shubham, 9027112249, 263139,
+Kalu sai,
+Kusumkheda
+KALADHUNGI, UTTARAKHAND 
+</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account&gt;Your Address (ER-1)        2- Click on "Edit" button (ER-2)                            3- Change Address and Name and Click on "Update Address" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User Must go to Your Address,  add address Page                                                     2- User should reach "Edit Your Address"  Page and able to edit any field of address.                                             3- User should be redirect back to the your address page with a confirmation message ," Address Saved"</t>
+  </si>
+  <si>
+    <t>Verify that the user can set an address as the default address</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account&gt;Your Address (ER-1)         2- Click on "Set as Default"  (ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User should be logged in,The user must have at least two saved address.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can Add address from Checkout Page </t>
+  </si>
+  <si>
+    <t>User should be logged in, Item already in cart</t>
+  </si>
+  <si>
+    <t>1- User should go to Your Address,  add address Page                                                     2- User should redirect to same page with confimation message "Default Address Changed"  and "Set as Default" link disapper from the selected address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sagar , 8394003017, 263139,
+Amarpali road,
+Kusumkheda
+KALADHUNGI, UTTARAKHAND 
+</t>
+  </si>
+  <si>
+    <t>1- Click on "Cart" link present at top right corner and click on "Proceed to Buy" button (ER-1)                                                              2- Click on "Add new Address" link and Enter valid address (ER-2)                                       3- Click on "Use this address" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1-User should redirect to "Checkout" page.                                                                     2- Address form pop-up on same page                                                                      3- Address should be saved and selected as a delivery Address</t>
   </si>
 </sst>
 </file>
@@ -918,7 +1041,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -938,23 +1061,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1253,7 +1377,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1305,12 +1429,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1350,12 +1474,12 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1636,12 +1760,12 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="14" t="s">
+      <c r="D22" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-      <c r="G22" s="14"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
       <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1661,8 +1785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1711,357 +1835,393 @@
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="75">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>59</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="75">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="135">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="2" t="s">
         <v>71</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="60">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="14" t="s">
         <v>109</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="60">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="14" t="s">
         <v>124</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="75">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="14" t="s">
         <v>80</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="60">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="E9" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="60">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="8" t="s">
+      <c r="C10" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="E10" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="G10" s="14" t="s">
         <v>89</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="90">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="G11" s="14" t="s">
         <v>91</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="75">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="14" t="s">
         <v>94</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="135">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C13" s="8" t="s">
+      <c r="C13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="14" t="s">
         <v>107</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="150">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="14" t="s">
         <v>101</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="45">
       <c r="A15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="14" t="s">
         <v>106</v>
       </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="60">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="F16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="10" t="s">
+      <c r="G16" s="14" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" ht="75">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+    </row>
+    <row r="17" spans="1:9" ht="75">
       <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="F17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="10" t="s">
+      <c r="G17" s="14" t="s">
         <v>118</v>
       </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2073,8 +2233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection sqref="A1:I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2122,226 +2282,267 @@
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="G2" s="14" t="s">
         <v>131</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="210">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>134</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="195">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
         <v>141</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="210">
       <c r="A5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>144</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>148</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="14" t="s">
         <v>142</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="210">
-      <c r="B6" t="s">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>146</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>147</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="14" t="s">
         <v>149</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="360">
-      <c r="B7" t="s">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>151</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>153</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="14" t="s">
         <v>152</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="360">
-      <c r="B8" t="s">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="14" t="s">
         <v>157</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="225">
-      <c r="B9" t="s">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>159</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="14" t="s">
         <v>161</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="255">
-      <c r="B10" t="s">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>163</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="14" t="s">
         <v>165</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="255">
-      <c r="B11" t="s">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="14" t="s">
         <v>168</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="14" t="s">
         <v>169</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="60">
-      <c r="B12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>171</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>190</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="14" t="s">
         <v>191</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="90">
-      <c r="B13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>188</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="14" t="s">
         <v>192</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="14" t="s">
         <v>193</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2353,7 +2554,7 @@
   <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="A2" sqref="A2:I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2401,81 +2602,93 @@
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="14" t="s">
         <v>175</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="75">
       <c r="A3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="14" t="s">
         <v>177</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="14" t="s">
         <v>181</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="105">
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="14" t="s">
         <v>184</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="14" t="s">
         <v>185</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="14" t="s">
         <v>186</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2535,275 +2748,319 @@
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>196</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="105">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="2" t="s">
         <v>198</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="2" t="s">
         <v>199</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="30">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>212</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="30">
       <c r="A6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="14" t="s">
         <v>200</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="14" t="s">
         <v>209</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="14" t="s">
         <v>210</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="90">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="14" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="14" t="s">
         <v>218</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="90">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="14" t="s">
         <v>221</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="14" t="s">
         <v>224</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="45">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="14" t="s">
         <v>220</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="14" t="s">
         <v>222</v>
       </c>
-      <c r="G10" s="10" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="14" t="s">
         <v>223</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="60">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="G11" s="10" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="14" t="s">
         <v>228</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
     <row r="12" spans="1:9" ht="60">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="14" t="s">
         <v>229</v>
       </c>
-      <c r="G12" s="10" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="14" t="s">
         <v>230</v>
       </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
     </row>
     <row r="13" spans="1:9" ht="75">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="D13" s="8" t="s">
+      <c r="D13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="14" t="s">
         <v>233</v>
       </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
     </row>
     <row r="14" spans="1:9" ht="60">
       <c r="A14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="14" t="s">
         <v>236</v>
       </c>
-      <c r="G14" s="10" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="14" t="s">
         <v>237</v>
       </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9" ht="75">
       <c r="A15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="14" t="s">
         <v>238</v>
       </c>
-      <c r="D15" s="8" t="s">
+      <c r="D15" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="14" t="s">
         <v>241</v>
       </c>
-      <c r="G15" s="10" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="14" t="s">
         <v>242</v>
       </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2812,10 +3069,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2830,295 +3087,639 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="150">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="8"/>
+    </row>
+    <row r="3" spans="1:9" ht="90">
+      <c r="A3" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="150">
+      <c r="A4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="8"/>
+    </row>
+    <row r="5" spans="1:9" ht="135">
+      <c r="A5" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="1:9" ht="90">
+      <c r="A6" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
+      <c r="D6" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="1:9" ht="120">
+      <c r="A7" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="H7" s="2"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" ht="105">
+      <c r="A8" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="1:9" ht="105">
+      <c r="A9" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>249</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="1:9" ht="105">
+      <c r="A10" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="1:9" ht="150">
+      <c r="A11" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="1:9" ht="105">
+      <c r="A12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="105">
+      <c r="A13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="1:9" ht="105">
+      <c r="A14" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H14" s="2"/>
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="105">
+      <c r="A15" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>283</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="H15" s="1"/>
+    </row>
+    <row r="16" spans="1:9" ht="90">
+      <c r="A16" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="H16" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="8" max="9" width="24.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="150">
+      <c r="A2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="150">
-      <c r="A3" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" s="8" t="s">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="8" t="s">
-        <v>246</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="90">
-      <c r="A4" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="C3" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>295</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="1:9" ht="105">
+      <c r="A4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="120">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>250</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
+      <c r="C4" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="14" t="s">
+        <v>301</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="135">
+      <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>303</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="105">
-      <c r="A6" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="105">
-      <c r="A7" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="105">
-      <c r="A8" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B8" s="8" t="s">
+      <c r="A7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="150">
-      <c r="A9" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D9" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="105">
-      <c r="A10" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>280</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="105">
-      <c r="A11" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="105">
-      <c r="A12" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>170</v>
+      <c r="C7" s="14" t="s">
+        <v>310</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="D8" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="316">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="351">
   <si>
     <t>Project Name</t>
   </si>
@@ -985,6 +985,118 @@
   </si>
   <si>
     <t>1-User should redirect to "Checkout" page.                                                                     2- Address form pop-up on same page                                                                      3- Address should be saved and selected as a delivery Address</t>
+  </si>
+  <si>
+    <t>User shoud be logged out</t>
+  </si>
+  <si>
+    <t>Verify that the user can not add an item to the wishlist without logging in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Browse items and select                                2- Click on "Add to Wish List" button (ER-1)
+</t>
+  </si>
+  <si>
+    <t>1- User must not able to add item to the wishlist and should be redirect to Login page</t>
+  </si>
+  <si>
+    <t>User shoud be logged in</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Browse items and select                                2- Click on "Add to Wish List" button (ER-1)                                                                                3- Enter List Name and click on "Create List" button (ER-2)
+</t>
+  </si>
+  <si>
+    <t>1- A pop-up window should appear prompting the user to enter a name for the shopping list.                                   2- Pop-up window should appear with the message shown "1 Item added to shopping list"</t>
+  </si>
+  <si>
+    <t>Verify that the New User can add an item to the wish list</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete Item from wishlist</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                          2- Select List name ,from which user want to delete an item                                         3-  Click on Delete Icon (ER-2)</t>
+  </si>
+  <si>
+    <t>1- User should redirect to wishlist page where user can view their added item and List name                          2- User should receive delete item confirmation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the user can create a list  </t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                        2- Click on "Create a List" link , enter list name (ER-2)                                                                             3- Click on "Create List" button (ER-3)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should redirect to wishlist page where user can view their added item and List name                          2- Pop-up window should appear prompting the user to enter a name for shopping list                                             3- User must be redirect to same page and new list should appear </t>
+  </si>
+  <si>
+    <t>Verify that the user can select a list name when adding an item to the list</t>
+  </si>
+  <si>
+    <t>1- Browse items and select                                2- Click on "Add to Wish List" dropmenu (ER-1)                                                                        3- Choose the list name where user want to add item and click on list name (ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User must view all list name               2- A confirmation pop-up should appear indicating that the item has been added.
+</t>
+  </si>
+  <si>
+    <t>Verify that the user can move item from one list to another list</t>
+  </si>
+  <si>
+    <t>User shoud be logged in, atleast 1 item should be added in wishlist</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                          2- Select list from user want to move item, click on "move" dropmenu and select list name (ER-2)</t>
+  </si>
+  <si>
+    <t>1- User should redirect to wishlist page where user can view their added item and List name                           2- Item should be moved to the selected list and should disappear from the current list</t>
+  </si>
+  <si>
+    <t>Verify that the user can undo deletion of an item</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                        2- Select the list containing the items , delete the item, After the item is deleted, look for an "Undo" option or message.
+ (ER-2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should redirect to wishlist page where user can view their added item and List name                             2- Upon clicking the Undo button, the item is restored to the list.
+</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete shopping list</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                          2- Select the list user want to delete, place the cursor on hover menu"More" and click on "Manage list" (ER-2)                    3-  Click on "Delete List" button (ER-3)        4- Click on "Yes"</t>
+  </si>
+  <si>
+    <t>1- User should be redirected to wishlist page where user can view their added item and List name                          2- Pop-up window with list information should appear                                                  3- A Confirm Delete pop-up window should appear 
+4- The list should be deleted from wishlist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User shoud be logged in and atleast 1 list is created </t>
+  </si>
+  <si>
+    <t>Verify that the user can Modify List Information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                          2- Select the list user want to edit, place the cursor on hover menu"More" and click on "Manage list" (ER-2)                           3- Change the list name, Recipient,Privacy or other editable fields as desired and click on "Save Changes" button.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should be redirected to wishlist page where user can view their added item and List name               2- List information pop-up should be appear                                                                  3- The updated information should be displayed </t>
+  </si>
+  <si>
+    <t>User shoud be logged in, atleast some items should be added in wishlist</t>
+  </si>
+  <si>
+    <t>Verify that the user can search Listed item with valid input</t>
+  </si>
+  <si>
+    <t>1- Go to Account and List Dropmenu and click "Your Account &gt; Your Wish List" Link (ER-1)                                                                         2- Choose the list in which user want to search, Enter item name and Press Enter button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- User should be redirected to wishlist page where user can view their added item and List name               2- Search Result should be displayed</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1065,12 +1177,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1079,6 +1185,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,7 +1498,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1429,12 +1550,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
       <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1474,12 +1595,12 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1760,12 +1881,12 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
@@ -1844,7 +1965,7 @@
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="11" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1869,7 +1990,7 @@
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1894,7 +2015,7 @@
       <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="11" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -1919,7 +2040,7 @@
       <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -1938,19 +2059,19 @@
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="1"/>
@@ -1963,19 +2084,19 @@
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>123</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>124</v>
       </c>
       <c r="H7" s="1"/>
@@ -1988,19 +2109,19 @@
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>122</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>80</v>
       </c>
       <c r="H8" s="1"/>
@@ -2019,13 +2140,13 @@
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="1"/>
@@ -2044,13 +2165,13 @@
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>89</v>
       </c>
       <c r="H10" s="1"/>
@@ -2069,13 +2190,13 @@
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="13" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="1"/>
@@ -2094,11 +2215,11 @@
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="13" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>94</v>
       </c>
       <c r="H12" s="1"/>
@@ -2117,11 +2238,11 @@
       <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="13" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="1"/>
@@ -2140,11 +2261,11 @@
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="13" t="s">
         <v>100</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>101</v>
       </c>
       <c r="H14" s="1"/>
@@ -2163,11 +2284,11 @@
       <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="13" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>106</v>
       </c>
       <c r="H15" s="1"/>
@@ -2186,13 +2307,13 @@
       <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="12" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="1"/>
@@ -2211,13 +2332,13 @@
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="11" t="s">
         <v>113</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="12" t="s">
         <v>118</v>
       </c>
       <c r="H17" s="1"/>
@@ -2297,7 +2418,7 @@
       <c r="F2" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>131</v>
       </c>
       <c r="H2" s="1"/>
@@ -2322,7 +2443,7 @@
       <c r="F3" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>134</v>
       </c>
       <c r="H3" s="1"/>
@@ -2358,19 +2479,19 @@
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>144</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>148</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>142</v>
       </c>
       <c r="H5" s="1"/>
@@ -2381,17 +2502,17 @@
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>146</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>147</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>149</v>
       </c>
       <c r="H6" s="1"/>
@@ -2402,17 +2523,17 @@
       <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>151</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>152</v>
       </c>
       <c r="H7" s="1"/>
@@ -2423,17 +2544,17 @@
       <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>155</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>156</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>157</v>
       </c>
       <c r="H8" s="1"/>
@@ -2444,17 +2565,17 @@
       <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>159</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>160</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>161</v>
       </c>
       <c r="H9" s="1"/>
@@ -2465,17 +2586,17 @@
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>163</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>164</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>165</v>
       </c>
       <c r="H10" s="1"/>
@@ -2486,17 +2607,17 @@
       <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>167</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>168</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>169</v>
       </c>
       <c r="H11" s="1"/>
@@ -2507,17 +2628,17 @@
       <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>171</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>190</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>191</v>
       </c>
       <c r="H12" s="1"/>
@@ -2528,17 +2649,17 @@
       <c r="B13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>188</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>192</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>193</v>
       </c>
       <c r="H13" s="1"/>
@@ -2615,7 +2736,7 @@
         <v>174</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>175</v>
       </c>
       <c r="H2" s="1"/>
@@ -2638,7 +2759,7 @@
         <v>183</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>177</v>
       </c>
       <c r="H3" s="1"/>
@@ -2661,7 +2782,7 @@
         <v>180</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>181</v>
       </c>
       <c r="H4" s="1"/>
@@ -2674,17 +2795,17 @@
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>184</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="12" t="s">
         <v>185</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>186</v>
       </c>
       <c r="H5" s="1"/>
@@ -2839,17 +2960,17 @@
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>201</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="12" t="s">
         <v>205</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>200</v>
       </c>
       <c r="H6" s="1"/>
@@ -2862,17 +2983,17 @@
       <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="12" t="s">
         <v>209</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>210</v>
       </c>
       <c r="H7" s="1"/>
@@ -2885,17 +3006,17 @@
       <c r="B8" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="C8" s="12" t="s">
         <v>211</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="12" t="s">
         <v>217</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>218</v>
       </c>
       <c r="H8" s="1"/>
@@ -2908,17 +3029,17 @@
       <c r="B9" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>219</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="12" t="s">
         <v>221</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>224</v>
       </c>
       <c r="H9" s="1"/>
@@ -2931,17 +3052,17 @@
       <c r="B10" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>220</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E10" s="14" t="s">
+      <c r="E10" s="12" t="s">
         <v>222</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>223</v>
       </c>
       <c r="H10" s="1"/>
@@ -2954,17 +3075,17 @@
       <c r="B11" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>225</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E11" s="14" t="s">
+      <c r="E11" s="12" t="s">
         <v>227</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="12" t="s">
         <v>228</v>
       </c>
       <c r="H11" s="1"/>
@@ -2977,17 +3098,17 @@
       <c r="B12" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>231</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="12" t="s">
         <v>229</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>230</v>
       </c>
       <c r="H12" s="1"/>
@@ -3000,17 +3121,17 @@
       <c r="B13" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>232</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="12" t="s">
         <v>235</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>233</v>
       </c>
       <c r="H13" s="1"/>
@@ -3023,17 +3144,17 @@
       <c r="B14" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>234</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E14" s="14" t="s">
+      <c r="E14" s="12" t="s">
         <v>236</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="12" t="s">
         <v>237</v>
       </c>
       <c r="H14" s="1"/>
@@ -3046,17 +3167,17 @@
       <c r="B15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>238</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="12" t="s">
         <v>241</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="12" t="s">
         <v>242</v>
       </c>
       <c r="H15" s="1"/>
@@ -3072,7 +3193,7 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:H16"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3285,7 +3406,7 @@
       <c r="B9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="12" t="s">
         <v>249</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3308,7 +3429,7 @@
       <c r="B10" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="12" t="s">
         <v>250</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3331,7 +3452,7 @@
       <c r="B11" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="12" t="s">
         <v>252</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3354,7 +3475,7 @@
       <c r="B12" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="12" t="s">
         <v>253</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3379,7 +3500,7 @@
       <c r="B13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="12" t="s">
         <v>254</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3404,7 +3525,7 @@
       <c r="B14" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="12" t="s">
         <v>255</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3427,7 +3548,7 @@
       <c r="B15" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="12" t="s">
         <v>283</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3449,7 +3570,7 @@
       <c r="B16" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="C16" s="14" t="s">
+      <c r="C16" s="12" t="s">
         <v>286</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3473,8 +3594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3537,7 +3658,7 @@
       <c r="F2" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="12" t="s">
         <v>295</v>
       </c>
       <c r="H2" s="1"/>
@@ -3562,7 +3683,7 @@
       <c r="F3" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>295</v>
       </c>
       <c r="H3" s="1"/>
@@ -3585,7 +3706,7 @@
         <v>300</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="12" t="s">
         <v>301</v>
       </c>
       <c r="H4" s="1"/>
@@ -3598,7 +3719,7 @@
       <c r="B5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="12" t="s">
         <v>303</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3623,7 +3744,7 @@
       <c r="B6" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>307</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3646,7 +3767,7 @@
       <c r="B7" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="12" t="s">
         <v>310</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3675,21 +3796,21 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
-    <col min="3" max="3" width="27.28515625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="36.42578125" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3722,7 +3843,208 @@
         <v>10</v>
       </c>
     </row>
+    <row r="2" spans="1:9" ht="60">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>316</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="90">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="D3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="90">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="D4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="120">
+      <c r="A5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="120">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>328</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="90">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D7" t="s">
+        <v>320</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90">
+      <c r="A8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="135">
+      <c r="A9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>158</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="D9" t="s">
+        <v>320</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="165">
+      <c r="A10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>345</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="90">
+      <c r="A11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Login &amp; Security" sheetId="7" r:id="rId6"/>
     <sheet name="Your Address" sheetId="8" r:id="rId7"/>
     <sheet name="Wishlist" sheetId="9" r:id="rId8"/>
+    <sheet name="Search" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="385">
   <si>
     <t>Project Name</t>
   </si>
@@ -359,9 +360,6 @@
     <t>Verify that the application enforces password strength requirements</t>
   </si>
   <si>
-    <t>"sanjay mehta", 9027112249, hemu@1</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-Click on my account dropmenu                                                  2-Enter First_name Last_name, Mobile No and Password.                                                                                        3- Click on Verify Mobile Number (ER-1)                                                                       </t>
   </si>
   <si>
@@ -375,12 +373,6 @@
   </si>
   <si>
     <t>"sanjay mehta", 9027112249, space</t>
-  </si>
-  <si>
-    <t>1- User is not registered and warning message displayed on  the top (There was a Problem Enter at least 6 character)</t>
-  </si>
-  <si>
-    <t>1- User is not registered and warning message displayed below the password field (Enter at least 6 character)</t>
   </si>
   <si>
     <t>Validate Register an account without entering OTP</t>
@@ -1097,6 +1089,117 @@
   </si>
   <si>
     <t>1- User should be redirected to wishlist page where user can view their added item and List name               2- Search Result should be displayed</t>
+  </si>
+  <si>
+    <t>"sanjay mehta", 9027112249, hemu1</t>
+  </si>
+  <si>
+    <t>1- User should not registered and warning message should be displayed below the password field (Enter at least 6 character)</t>
+  </si>
+  <si>
+    <t>1- User is not registered and warning message should be displayed on the top (There was a Problem Enter at least 6 character)</t>
+  </si>
+  <si>
+    <t>TEST SN ID_010</t>
+  </si>
+  <si>
+    <t>Verify that the User get relevant result for valid search items</t>
+  </si>
+  <si>
+    <t>IQ Neo 6</t>
+  </si>
+  <si>
+    <t>1- Relevant result should be displayed</t>
+  </si>
+  <si>
+    <t>dkfjdkfj</t>
+  </si>
+  <si>
+    <t>1-Error message should be displayed " No Results for dkfjdkfj, Try checking your spelling or use more general terms"</t>
+  </si>
+  <si>
+    <t>Search for an Item with invalid name</t>
+  </si>
+  <si>
+    <t>Search for an item using incorrect spelling</t>
+  </si>
+  <si>
+    <t>1- Enter valid item name in the search bar and click on search button/Press Enter (ER-1)</t>
+  </si>
+  <si>
+    <t>1- Enter invalid name in the search bar and click on search button/Press Enter (ER-1)</t>
+  </si>
+  <si>
+    <t>1- Enter incorrect spelling in the search bar and click on search button/Press Enter (ER-1) (Search for "Tablat" instead of "Tablet")</t>
+  </si>
+  <si>
+    <t>1- The system should be displayed similar results and correction message e.g.."Did you mean tablet</t>
+  </si>
+  <si>
+    <t>Tablat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that the search bar display search history </t>
+  </si>
+  <si>
+    <t>1- Click on search bar field (ER-1)</t>
+  </si>
+  <si>
+    <t>1- The system should display previous search item name in a drop down menu</t>
+  </si>
+  <si>
+    <t>Verify that user can delete search history</t>
+  </si>
+  <si>
+    <t>1- Click on search bar field (ER-1)                               2- Click on "Delete"button associated with each search name (ER-2)</t>
+  </si>
+  <si>
+    <t>1- System should display previous search items name                                        2- Searched name should be deleted</t>
+  </si>
+  <si>
+    <t>Verify the Search Bar Functionality with an Empty Field</t>
+  </si>
+  <si>
+    <t>1- Leave empty search bar and click on search button/Press Enter (ER-1)</t>
+  </si>
+  <si>
+    <t>1- User should be redirected to the same page (Home page)</t>
+  </si>
+  <si>
+    <t>Search item using only item prefix</t>
+  </si>
+  <si>
+    <t>trou</t>
+  </si>
+  <si>
+    <t>1- Enter only prefix of the item in the search bar (ER-1) e.g.. trou instead of trouser</t>
+  </si>
+  <si>
+    <t>1- The system should display suggested multiple items whose names start with "trou"</t>
+  </si>
+  <si>
+    <t>Search Items with Filters</t>
+  </si>
+  <si>
+    <t>1- Search for "Jeans" and apply filter e.g "brand", "Price", "Size" (ER-1)</t>
+  </si>
+  <si>
+    <t>brand-levis, price-500, size-32</t>
+  </si>
+  <si>
+    <t>1- User should display items as applied filters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search with case sensitive </t>
+  </si>
+  <si>
+    <t>1- Search item with capital letter and again same item with small letter</t>
+  </si>
+  <si>
+    <t>"WATCH", "watch"</t>
+  </si>
+  <si>
+    <t>1- User should display same item in both cases</t>
   </si>
 </sst>
 </file>
@@ -1498,7 +1601,7 @@
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1624,7 +1727,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I10" s="1"/>
     </row>
@@ -1907,14 +2010,14 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="14.5703125" customWidth="1"/>
     <col min="2" max="2" width="12.28515625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="26" customWidth="1"/>
     <col min="5" max="5" width="47" customWidth="1"/>
     <col min="6" max="6" width="21.85546875" customWidth="1"/>
@@ -1960,7 +2063,7 @@
         <v>56</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>57</v>
@@ -1985,7 +2088,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
@@ -2010,7 +2113,7 @@
         <v>64</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>62</v>
@@ -2085,7 +2188,7 @@
         <v>75</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
@@ -2097,7 +2200,7 @@
         <v>77</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2110,7 +2213,7 @@
         <v>78</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
@@ -2135,7 +2238,7 @@
         <v>81</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
@@ -2160,7 +2263,7 @@
         <v>86</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>62</v>
@@ -2185,7 +2288,7 @@
         <v>90</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
@@ -2294,7 +2397,7 @@
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:9" ht="60">
+    <row r="16" spans="1:9" ht="90">
       <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
@@ -2308,13 +2411,13 @@
         <v>62</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>112</v>
+        <v>348</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>119</v>
+        <v>349</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2324,22 +2427,22 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>118</v>
+        <v>350</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -2404,22 +2507,22 @@
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2429,22 +2532,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2454,20 +2557,20 @@
         <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2477,22 +2580,22 @@
         <v>16</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2500,20 +2603,20 @@
     <row r="6" spans="1:9" ht="210">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="12" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2521,20 +2624,20 @@
     <row r="7" spans="1:9" ht="360">
       <c r="A7" s="1"/>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2542,20 +2645,20 @@
     <row r="8" spans="1:9" ht="360">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2563,20 +2666,20 @@
     <row r="9" spans="1:9" ht="225">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2584,20 +2687,20 @@
     <row r="10" spans="1:9" ht="255">
       <c r="A10" s="1"/>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2605,20 +2708,20 @@
     <row r="11" spans="1:9" ht="255">
       <c r="A11" s="1"/>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2626,20 +2729,20 @@
     <row r="12" spans="1:9" ht="60">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E12" s="12" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2647,20 +2750,20 @@
     <row r="13" spans="1:9" ht="90">
       <c r="A13" s="1"/>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>189</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>192</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2724,20 +2827,20 @@
         <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2747,20 +2850,20 @@
         <v>17</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2770,20 +2873,20 @@
         <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="12" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2793,20 +2896,20 @@
         <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="12" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -2870,20 +2973,20 @@
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="2" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -2893,20 +2996,20 @@
         <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="2" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -2916,20 +3019,20 @@
         <v>19</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="2" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2939,13 +3042,13 @@
         <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2958,20 +3061,20 @@
         <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="12" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2981,20 +3084,20 @@
         <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3004,20 +3107,20 @@
         <v>19</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="12" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -3027,20 +3130,20 @@
         <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="12" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -3050,20 +3153,20 @@
         <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="12" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3073,20 +3176,20 @@
         <v>19</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E11" s="12" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="12" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3096,20 +3199,20 @@
         <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D12" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>226</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>229</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3119,20 +3222,20 @@
         <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C13" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>232</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E13" s="12" t="s">
-        <v>235</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="12" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3142,20 +3245,20 @@
         <v>19</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="12" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3165,20 +3268,20 @@
         <v>19</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C15" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>238</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>241</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="12" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3192,8 +3295,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3238,350 +3341,350 @@
     </row>
     <row r="2" spans="1:9" ht="150">
       <c r="A2" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="F2" s="2"/>
       <c r="G2" s="2" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="8"/>
     </row>
     <row r="3" spans="1:9" ht="90">
       <c r="A3" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="8"/>
     </row>
     <row r="4" spans="1:9" ht="150">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="8"/>
     </row>
     <row r="5" spans="1:9" ht="135">
       <c r="A5" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="8"/>
     </row>
     <row r="6" spans="1:9" ht="90">
       <c r="A6" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="1:9" ht="120">
       <c r="A7" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="1:9" ht="105">
       <c r="A8" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>246</v>
-      </c>
       <c r="D8" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" ht="105">
       <c r="A9" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="1:9" ht="105">
       <c r="A10" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" ht="150">
       <c r="A11" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="1:9" ht="105">
       <c r="A12" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="105">
       <c r="A13" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" ht="105">
       <c r="A14" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="105">
       <c r="A15" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="H15" s="1"/>
     </row>
     <row r="16" spans="1:9" ht="90">
       <c r="A16" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="H16" s="1"/>
     </row>
@@ -3644,22 +3747,22 @@
         <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="G2" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -3669,22 +3772,22 @@
         <v>21</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
@@ -3694,20 +3797,20 @@
         <v>21</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>302</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="12" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -3717,22 +3820,22 @@
         <v>21</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -3742,20 +3845,20 @@
         <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -3765,22 +3868,22 @@
         <v>21</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="12" t="s">
+        <v>307</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="D7" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -3798,8 +3901,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3848,19 +3951,19 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D2" s="14" t="s">
+        <v>313</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>316</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>318</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="90">
@@ -3868,19 +3971,19 @@
         <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D3" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="90">
@@ -3888,19 +3991,19 @@
         <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D4" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="120">
@@ -3908,19 +4011,19 @@
         <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="G5" s="15" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="120">
@@ -3928,19 +4031,19 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="90">
@@ -3948,19 +4051,19 @@
         <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D7" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="G7" s="15" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="90">
@@ -3968,19 +4071,19 @@
         <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C8" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>333</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>335</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="135">
@@ -3988,19 +4091,19 @@
         <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="165">
@@ -4008,19 +4111,19 @@
         <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D10" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>342</v>
+      </c>
+      <c r="G10" s="8" t="s">
         <v>343</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>345</v>
-      </c>
-      <c r="G10" s="8" t="s">
-        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="90">
@@ -4028,19 +4131,246 @@
         <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D11" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="G11" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="E11" s="8" t="s">
-        <v>349</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>350</v>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.28515625" customWidth="1"/>
+    <col min="5" max="5" width="42.140625" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="33.5703125" customWidth="1"/>
+    <col min="8" max="8" width="15.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30">
+      <c r="A2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" t="s">
+        <v>353</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60">
+      <c r="A3" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" t="s">
+        <v>357</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="F3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="45">
+      <c r="A4" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" t="s">
+        <v>363</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="45">
+      <c r="A5" t="s">
+        <v>351</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="60">
+      <c r="A6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>368</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="30">
+      <c r="A7" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>375</v>
+      </c>
+      <c r="F8" t="s">
+        <v>374</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="30">
+      <c r="A9" t="s">
+        <v>351</v>
+      </c>
+      <c r="B9" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" t="s">
+        <v>351</v>
+      </c>
+      <c r="B10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>382</v>
+      </c>
+      <c r="F10" t="s">
+        <v>383</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>384</v>
       </c>
     </row>
   </sheetData>

--- a/Amazon.xlsx
+++ b/Amazon.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="630" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenario" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,15 @@
     <sheet name="Your Address" sheetId="8" r:id="rId7"/>
     <sheet name="Wishlist" sheetId="9" r:id="rId8"/>
     <sheet name="Search" sheetId="10" r:id="rId9"/>
+    <sheet name="Add to cart" sheetId="11" r:id="rId10"/>
+    <sheet name="Payment" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="420">
   <si>
     <t>Project Name</t>
   </si>
@@ -1157,9 +1159,6 @@
     <t>1- System should display previous search items name                                        2- Searched name should be deleted</t>
   </si>
   <si>
-    <t>Verify the Search Bar Functionality with an Empty Field</t>
-  </si>
-  <si>
     <t>1- Leave empty search bar and click on search button/Press Enter (ER-1)</t>
   </si>
   <si>
@@ -1172,9 +1171,6 @@
     <t>trou</t>
   </si>
   <si>
-    <t>1- Enter only prefix of the item in the search bar (ER-1) e.g.. trou instead of trouser</t>
-  </si>
-  <si>
     <t>1- The system should display suggested multiple items whose names start with "trou"</t>
   </si>
   <si>
@@ -1187,12 +1183,6 @@
     <t>brand-levis, price-500, size-32</t>
   </si>
   <si>
-    <t>1- User should display items as applied filters</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Search with case sensitive </t>
-  </si>
-  <si>
     <t>1- Search item with capital letter and again same item with small letter</t>
   </si>
   <si>
@@ -1200,6 +1190,124 @@
   </si>
   <si>
     <t>1- User should display same item in both cases</t>
+  </si>
+  <si>
+    <t>Verify the Search bar Functionality with an Empty Field</t>
+  </si>
+  <si>
+    <t>1- Enter only prefix of the item in the search bar e.g.. trou instead of trouser (ER-1)</t>
+  </si>
+  <si>
+    <t>Search with case sensitivity</t>
+  </si>
+  <si>
+    <t>1-The user should see items displayed according to the applied filters.</t>
+  </si>
+  <si>
+    <t>TEST SN ID_011</t>
+  </si>
+  <si>
+    <t>1- Click on the product the user wants to add to the cart                                                        2- Click on "Add to cart" button (ER-1)</t>
+  </si>
+  <si>
+    <t>Verify that the user can add product to the cart without Sign-in</t>
+  </si>
+  <si>
+    <t>Verify that the user should not see their item in the cart after Reopening the browser</t>
+  </si>
+  <si>
+    <t>1- The product should be successfully added to the cart</t>
+  </si>
+  <si>
+    <t>1-The product should successfully add to the cart                                              2- The User should not able to see product in the cart</t>
+  </si>
+  <si>
+    <t>User should be logged-in</t>
+  </si>
+  <si>
+    <t>1-The product should successfully add to the cart                                              2- The User should see product in the cart</t>
+  </si>
+  <si>
+    <t>1-Open browser as a guest 2-User should not be logged-in</t>
+  </si>
+  <si>
+    <t>Verify that the user should see their item in the cart after Reopening the browser</t>
+  </si>
+  <si>
+    <t>Verify that the user can add product to the cart</t>
+  </si>
+  <si>
+    <t>1- Click on the product the user wants to add to the cart                                                        2- Click on "Cart" button (ER-1)                          3- Re-open the browser and click on "Cart" button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- Click on the product the user wants to add to the cart                                                        2- Click on "Cart" button (ER-1)                      3- Re-open the browser and click on "Cart" button (ER-2)</t>
+  </si>
+  <si>
+    <t>1- Click on "Cart" button (ER-1)</t>
+  </si>
+  <si>
+    <t>1- The cart summary should shows the correct details</t>
+  </si>
+  <si>
+    <t>1-Open Amazon.in                   2-User should be logged-in</t>
+  </si>
+  <si>
+    <t>Verify that the cart summary refelects the correct subtotal, no of added items</t>
+  </si>
+  <si>
+    <t>Verify that the user can delete item from cart</t>
+  </si>
+  <si>
+    <t>1- Click on "Cart" button                                        2- Click on "Delete" button (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Item should remove </t>
+  </si>
+  <si>
+    <t>Verify that user should not add out of stock item to the cart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open Amazon.in                   </t>
+  </si>
+  <si>
+    <t>1- Search the product that is currently out of stock                                                                         2- Attempt to add the product to the shopping cart (ER-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-The system should prevent the user from adding the product to the cart and display an appropriate message (e.g., "This item is currently out of stock").
+</t>
+  </si>
+  <si>
+    <t>TEST SN ID_012</t>
+  </si>
+  <si>
+    <t>Verify that user can add  their card with valid detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-Open Amazon.in          </t>
+  </si>
+  <si>
+    <t>Verify that system shows error when invalid card details entered</t>
+  </si>
+  <si>
+    <t>1- Choose the product user want to buy and click on "Buy Now" button (ER-1)                                                                 2-Click on credit or debit card&gt; Enter card details " Card Number, Nick name, expiry date"&gt;  (ER-2)                                     3- Click on "Enter Card details" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User should display checkout page.                                                            2- Pop-up form prompting for card details                                                  3- The added card informtion should display</t>
+  </si>
+  <si>
+    <t>1- Choose the product user want to buy and click on "Buy Now" button (ER-1)                                                                 2-Click on credit or debit card&gt; Enter invalid  card details " Card Number, Nick name, Expiry date"&gt;  (ER-2)                                                               3- Click on "Enter Card details" button (ER-3)</t>
+  </si>
+  <si>
+    <t>1- User should display checkout page.                                                            2- Pop-up form prompting for card details                                                  3- The error message should display e.g.. "There was a problem  card no is not correct"</t>
+  </si>
+  <si>
+    <t>1- User should display checkout page.                                                            2- Pop-up form prompting for card details                                                  3- The error message should display e.g.."NOT FIND"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- User should display checkout page.                                                            2- Pop-up form prompting for card details                                                  3- </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that system shows error when invalid CVV number entered </t>
   </si>
 </sst>
 </file>
@@ -1229,7 +1337,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1252,11 +1360,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1279,7 +1413,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1289,13 +1422,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,14 +1737,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="7" max="7" width="26.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1653,12 +1792,12 @@
       <c r="C7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
       <c r="H7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1698,12 +1837,12 @@
       <c r="C9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
       <c r="H9" s="1" t="s">
         <v>42</v>
       </c>
@@ -1746,8 +1885,8 @@
         <v>31</v>
       </c>
       <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
       <c r="H11" s="1" t="s">
         <v>42</v>
       </c>
@@ -1899,7 +2038,7 @@
       <c r="D18" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="1"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1" t="s">
@@ -1984,12 +2123,12 @@
       <c r="C22" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
       <c r="H22" s="1" t="s">
         <v>44</v>
       </c>
@@ -2005,12 +2144,324 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="37.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="5" max="5" width="37.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="45">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="45">
+      <c r="A3" t="s">
+        <v>385</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="75">
+      <c r="A4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>396</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="75">
+      <c r="A5" t="s">
+        <v>385</v>
+      </c>
+      <c r="B5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="D5" t="s">
+        <v>391</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>397</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>401</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" s="13" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="45">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>402</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>403</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="90">
+      <c r="A8" t="s">
+        <v>385</v>
+      </c>
+      <c r="B8" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>407</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.85546875" customWidth="1"/>
+    <col min="3" max="3" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1"/>
+    <col min="5" max="5" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="120">
+      <c r="A2" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>413</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="135">
+      <c r="A3" t="s">
+        <v>409</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="135">
+      <c r="A4" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>417</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>418</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2068,7 +2519,7 @@
       <c r="D2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>60</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2093,7 +2544,7 @@
       <c r="D3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>63</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -2105,7 +2556,7 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" spans="1:9" ht="75">
+    <row r="4" spans="1:9" ht="60">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2118,7 +2569,7 @@
       <c r="D4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>67</v>
       </c>
       <c r="F4" s="2" t="s">
@@ -2143,7 +2594,7 @@
       <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="2" t="s">
@@ -2155,26 +2606,26 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
-    <row r="6" spans="1:9" ht="60">
+    <row r="6" spans="1:9" ht="45">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>108</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>109</v>
       </c>
       <c r="H6" s="1"/>
@@ -2187,19 +2638,19 @@
       <c r="B7" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>121</v>
       </c>
       <c r="H7" s="1"/>
@@ -2212,19 +2663,19 @@
       <c r="B8" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>119</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>80</v>
       </c>
       <c r="H8" s="1"/>
@@ -2243,19 +2694,19 @@
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>85</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="60">
+    <row r="10" spans="1:9" ht="45">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
@@ -2268,13 +2719,13 @@
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>89</v>
       </c>
       <c r="H10" s="1"/>
@@ -2293,13 +2744,13 @@
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>84</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="1"/>
@@ -2318,11 +2769,11 @@
       <c r="D12" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>93</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>94</v>
       </c>
       <c r="H12" s="1"/>
@@ -2341,11 +2792,11 @@
       <c r="D13" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>97</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>107</v>
       </c>
       <c r="H13" s="1"/>
@@ -2364,11 +2815,11 @@
       <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>100</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>101</v>
       </c>
       <c r="H14" s="1"/>
@@ -2387,11 +2838,11 @@
       <c r="D15" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>104</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>106</v>
       </c>
       <c r="H15" s="1"/>
@@ -2410,13 +2861,13 @@
       <c r="D16" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>349</v>
       </c>
       <c r="H16" s="1"/>
@@ -2435,13 +2886,13 @@
       <c r="D17" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="10" t="s">
         <v>112</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>350</v>
       </c>
       <c r="H17" s="1"/>
@@ -2458,7 +2909,7 @@
   <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection sqref="A1:I13"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2521,7 +2972,7 @@
       <c r="F2" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>128</v>
       </c>
       <c r="H2" s="1"/>
@@ -2546,7 +2997,7 @@
       <c r="F3" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>131</v>
       </c>
       <c r="H3" s="1"/>
@@ -2582,19 +3033,19 @@
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>141</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>145</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>139</v>
       </c>
       <c r="H5" s="1"/>
@@ -2605,17 +3056,17 @@
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>143</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>146</v>
       </c>
       <c r="H6" s="1"/>
@@ -2626,17 +3077,17 @@
       <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>148</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>150</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>149</v>
       </c>
       <c r="H7" s="1"/>
@@ -2647,17 +3098,17 @@
       <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>152</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>153</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>154</v>
       </c>
       <c r="H8" s="1"/>
@@ -2668,17 +3119,17 @@
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>156</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>157</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>158</v>
       </c>
       <c r="H9" s="1"/>
@@ -2689,17 +3140,17 @@
       <c r="B10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>161</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>162</v>
       </c>
       <c r="H10" s="1"/>
@@ -2710,17 +3161,17 @@
       <c r="B11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>164</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>165</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>166</v>
       </c>
       <c r="H11" s="1"/>
@@ -2731,17 +3182,17 @@
       <c r="B12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>168</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>187</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>188</v>
       </c>
       <c r="H12" s="1"/>
@@ -2752,17 +3203,17 @@
       <c r="B13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>185</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>189</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>190</v>
       </c>
       <c r="H13" s="1"/>
@@ -2839,7 +3290,7 @@
         <v>171</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>172</v>
       </c>
       <c r="H2" s="1"/>
@@ -2862,7 +3313,7 @@
         <v>180</v>
       </c>
       <c r="F3" s="1"/>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>174</v>
       </c>
       <c r="H3" s="1"/>
@@ -2885,7 +3336,7 @@
         <v>177</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>178</v>
       </c>
       <c r="H4" s="1"/>
@@ -2898,17 +3349,17 @@
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>181</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>182</v>
       </c>
       <c r="F5" s="1"/>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="11" t="s">
         <v>183</v>
       </c>
       <c r="H5" s="1"/>
@@ -2923,7 +3374,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3063,17 +3514,17 @@
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>198</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>202</v>
       </c>
       <c r="F6" s="1"/>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="11" t="s">
         <v>197</v>
       </c>
       <c r="H6" s="1"/>
@@ -3086,17 +3537,17 @@
       <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>201</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>206</v>
       </c>
       <c r="F7" s="1"/>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>207</v>
       </c>
       <c r="H7" s="1"/>
@@ -3109,17 +3560,17 @@
       <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>208</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>214</v>
       </c>
       <c r="F8" s="1"/>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="11" t="s">
         <v>215</v>
       </c>
       <c r="H8" s="1"/>
@@ -3132,17 +3583,17 @@
       <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>216</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>218</v>
       </c>
       <c r="F9" s="1"/>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>221</v>
       </c>
       <c r="H9" s="1"/>
@@ -3155,17 +3606,17 @@
       <c r="B10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>217</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>219</v>
       </c>
       <c r="F10" s="1"/>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="11" t="s">
         <v>220</v>
       </c>
       <c r="H10" s="1"/>
@@ -3178,17 +3629,17 @@
       <c r="B11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>222</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>224</v>
       </c>
       <c r="F11" s="1"/>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="11" t="s">
         <v>225</v>
       </c>
       <c r="H11" s="1"/>
@@ -3201,17 +3652,17 @@
       <c r="B12" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>228</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>226</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>227</v>
       </c>
       <c r="H12" s="1"/>
@@ -3224,17 +3675,17 @@
       <c r="B13" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>229</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>232</v>
       </c>
       <c r="F13" s="1"/>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="11" t="s">
         <v>230</v>
       </c>
       <c r="H13" s="1"/>
@@ -3247,17 +3698,17 @@
       <c r="B14" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>231</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>233</v>
       </c>
       <c r="F14" s="1"/>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>234</v>
       </c>
       <c r="H14" s="1"/>
@@ -3270,17 +3721,17 @@
       <c r="B15" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>235</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>238</v>
       </c>
       <c r="F15" s="1"/>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>239</v>
       </c>
       <c r="H15" s="1"/>
@@ -3295,8 +3746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3509,7 +3960,7 @@
       <c r="B9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>246</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -3532,7 +3983,7 @@
       <c r="B10" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -3555,7 +4006,7 @@
       <c r="B11" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>249</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -3578,7 +4029,7 @@
       <c r="B12" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>250</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -3603,7 +4054,7 @@
       <c r="B13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>251</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -3628,7 +4079,7 @@
       <c r="B14" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>252</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -3651,7 +4102,7 @@
       <c r="B15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>280</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -3673,7 +4124,7 @@
       <c r="B16" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>283</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -3695,7 +4146,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
@@ -3761,7 +4212,7 @@
       <c r="F2" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>292</v>
       </c>
       <c r="H2" s="1"/>
@@ -3786,7 +4237,7 @@
       <c r="F3" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="11" t="s">
         <v>292</v>
       </c>
       <c r="H3" s="1"/>
@@ -3809,7 +4260,7 @@
         <v>297</v>
       </c>
       <c r="F4" s="1"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="11" t="s">
         <v>298</v>
       </c>
       <c r="H4" s="1"/>
@@ -3822,7 +4273,7 @@
       <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>300</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3847,7 +4298,7 @@
       <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>304</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3870,7 +4321,7 @@
       <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>307</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -3889,7 +4340,26 @@
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9">
-      <c r="D8" s="10"/>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,7 +4372,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3950,201 +4420,231 @@
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="D2" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="2" t="s">
         <v>316</v>
       </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
     </row>
     <row r="3" spans="1:9" ht="90">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="11" t="s">
         <v>319</v>
       </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9" ht="90">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="11" t="s">
         <v>323</v>
       </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="120">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="11" t="s">
         <v>336</v>
       </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
     </row>
     <row r="6" spans="1:9" ht="120">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="2" t="s">
         <v>326</v>
       </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
     <row r="7" spans="1:9" ht="90">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="11" t="s">
         <v>329</v>
       </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
     </row>
     <row r="8" spans="1:9" ht="90">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="2" t="s">
         <v>333</v>
       </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="9" spans="1:9" ht="135">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>317</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="F9" s="1"/>
+      <c r="G9" s="2" t="s">
         <v>339</v>
       </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:9" ht="165">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="19" t="s">
         <v>342</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="2" t="s">
         <v>343</v>
       </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
     </row>
     <row r="11" spans="1:9" ht="90">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C11" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G11" s="8" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="2" t="s">
         <v>347</v>
       </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4154,10 +4654,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4203,174 +4703,212 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="30">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="2" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="60">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>357</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="D3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="2" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="45">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="D4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="2" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="45">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="11" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="60">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="D6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="11" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="F7" s="1"/>
+      <c r="G7" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="G7" s="15" t="s">
+    </row>
+    <row r="8" spans="1:9" ht="45">
+      <c r="A8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="45">
-      <c r="A8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="45">
+      <c r="A9" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>373</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="B9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="F8" t="s">
-        <v>374</v>
-      </c>
-      <c r="G8" s="15" t="s">
+      <c r="D9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>376</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" ht="30">
-      <c r="A9" t="s">
+      <c r="F9" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="1" t="s">
         <v>351</v>
       </c>
-      <c r="B9" t="s">
-        <v>155</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>377</v>
-      </c>
-      <c r="E9" s="15" t="s">
+      <c r="B10" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="1" t="s">
         <v>379</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G10" s="11" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30">
-      <c r="A10" t="s">
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
         <v>351</v>
       </c>
-      <c r="B10" t="s">
-        <v>159</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>381</v>
-      </c>
-      <c r="E10" s="15" t="s">
-        <v>382</v>
-      </c>
-      <c r="F10" t="s">
-        <v>383</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>384</v>
+      <c r="B11" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
